--- a/reporte_llamadas_asesores.xlsx
+++ b/reporte_llamadas_asesores.xlsx
@@ -606,7 +606,7 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>0.142</v>
@@ -618,7 +618,7 @@
         <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
         <v>0.07099999999999999</v>
@@ -642,7 +642,7 @@
         <v>100</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
         <v>0.142</v>
@@ -666,7 +666,7 @@
         <v>100</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Z2" t="n">
         <v>0.142</v>
@@ -678,7 +678,7 @@
         <v>100</v>
       </c>
       <c r="AC2" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AD2" t="n">
         <v>0.142</v>
@@ -703,34 +703,34 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>0.142</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0.142</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.426</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4">
@@ -800,7 +800,7 @@
         <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F4" t="n">
         <v>0.142</v>
@@ -812,7 +812,7 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
         <v>0.142</v>
@@ -830,16 +830,16 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="R4" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.142</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -872,13 +872,13 @@
         <v>100</v>
       </c>
       <c r="AC4" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AD4" t="n">
         <v>0.142</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.71</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>100</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0.142</v>
@@ -957,7 +957,7 @@
         <v>100</v>
       </c>
       <c r="Y5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
         <v>0.142</v>
@@ -994,7 +994,7 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>5.43</v>
+        <v>5.29</v>
       </c>
       <c r="F6" t="n">
         <v>0.142</v>
@@ -1006,7 +1006,7 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="J6" t="n">
         <v>0.142</v>
@@ -1018,7 +1018,7 @@
         <v>71.43000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="N6" t="n">
         <v>0.101</v>
@@ -1030,7 +1030,7 @@
         <v>100</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.14</v>
+        <v>10.14</v>
       </c>
       <c r="R6" t="n">
         <v>0.142</v>
@@ -1042,7 +1042,7 @@
         <v>57.14</v>
       </c>
       <c r="U6" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
         <v>0.081</v>
@@ -1054,7 +1054,7 @@
         <v>57.14</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.43</v>
+        <v>4.29</v>
       </c>
       <c r="Z6" t="n">
         <v>0.081</v>
@@ -1066,7 +1066,7 @@
         <v>71.43000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.86</v>
+        <v>7.14</v>
       </c>
       <c r="AD6" t="n">
         <v>0.101</v>
@@ -1109,16 +1109,16 @@
         <v>0.142</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.142</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>100</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R7" t="n">
         <v>0.142</v>
@@ -1139,7 +1139,7 @@
         <v>100</v>
       </c>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0.142</v>
@@ -1163,13 +1163,13 @@
         <v>100</v>
       </c>
       <c r="AC7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD7" t="n">
         <v>0.142</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.852</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="8">
@@ -1285,7 +1285,7 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="F9" t="n">
         <v>0.142</v>
@@ -1321,7 +1321,7 @@
         <v>100</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.67</v>
+        <v>3.33</v>
       </c>
       <c r="R9" t="n">
         <v>0.142</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>33.33</v>
+        <v>66.67</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.047</v>
+        <v>0.095</v>
       </c>
       <c r="AA9" t="n">
         <v>1</v>
@@ -1363,7 +1363,7 @@
         <v>0.047</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.663</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="10">
@@ -1394,7 +1394,7 @@
         <v>100</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>0.142</v>
